--- a/Rumus Excel - Latihan.xlsx
+++ b/Rumus Excel - Latihan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naufal\Desktop\Excel Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naufal\Desktop\DA-Excel-Power-BI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9265FFC-4D46-45AC-BF25-DE6F9A7CD75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABAED31-D382-4405-A272-356C855BBBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="5" xr2:uid="{7D7C354B-CF79-4DEF-A55F-B8302C814654}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="39270" windowHeight="18960" activeTab="5" xr2:uid="{7D7C354B-CF79-4DEF-A55F-B8302C814654}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -33,8 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="135">
   <si>
     <t>Nama Murid</t>
   </si>
@@ -441,6 +439,12 @@
   </si>
   <si>
     <t>Karena pada referensi berada di tabel Horizontal</t>
+  </si>
+  <si>
+    <t>STATUS lebih dari 8jt lulus</t>
+  </si>
+  <si>
+    <t>Counta</t>
   </si>
 </sst>
 </file>
@@ -482,7 +486,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,6 +532,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -661,6 +671,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -690,20 +715,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1055,7 +1066,7 @@
       <c r="B2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="37" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="2"/>
@@ -1067,7 +1078,7 @@
       <c r="B3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1077,7 +1088,7 @@
       <c r="B4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1087,7 +1098,7 @@
       <c r="B5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1097,7 +1108,7 @@
       <c r="B6" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1107,7 +1118,7 @@
       <c r="B7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1117,7 +1128,7 @@
       <c r="B8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1127,7 +1138,7 @@
       <c r="B9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1137,7 +1148,7 @@
       <c r="B10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="39" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="2"/>
@@ -1149,7 +1160,7 @@
       <c r="B11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1159,7 +1170,7 @@
       <c r="B12" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="2"/>
       <c r="N12" s="6"/>
     </row>
@@ -1170,7 +1181,7 @@
       <c r="B13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1180,7 +1191,7 @@
       <c r="B14" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="37" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1194,7 +1205,7 @@
       <c r="B15" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1204,7 +1215,7 @@
       <c r="B16" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1214,7 +1225,7 @@
       <c r="B17" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1224,7 +1235,7 @@
       <c r="B18" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1234,7 +1245,7 @@
       <c r="B19" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="38" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="2"/>
@@ -1246,7 +1257,7 @@
       <c r="B20" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1256,7 +1267,7 @@
       <c r="B21" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1266,8 +1277,8 @@
       <c r="B22" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="27" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="34" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1278,8 +1289,8 @@
       <c r="B23" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="35"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
@@ -1288,8 +1299,8 @@
       <c r="B24" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="29"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="36"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
@@ -1298,7 +1309,7 @@
       <c r="B25" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="2"/>
@@ -1310,7 +1321,7 @@
       <c r="B26" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="30"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,7 +1331,7 @@
       <c r="B27" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="2"/>
     </row>
   </sheetData>
@@ -1339,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3ED57E-412E-40E4-94E5-9D5727EB9AA6}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1366,7 @@
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1384,7 +1395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>114</v>
       </c>
@@ -1413,11 +1424,11 @@
         <v>Lulus</v>
       </c>
       <c r="I2" s="17">
-        <f>RANK(F2,F2:F6)</f>
+        <f>RANK(F2,$F$2:$F$6)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>115</v>
       </c>
@@ -1446,11 +1457,11 @@
         <v>Lulus</v>
       </c>
       <c r="I3" s="17">
-        <f>RANK(F3,F3:F7)</f>
+        <f t="shared" ref="I3:I6" si="3">RANK(F3,$F$2:$F$6)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>116</v>
       </c>
@@ -1479,11 +1490,11 @@
         <v>Gagal</v>
       </c>
       <c r="I4" s="17">
-        <f t="shared" ref="I4:I6" si="3">RANK(F4,F4:F8)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>117</v>
       </c>
@@ -1513,10 +1524,10 @@
       </c>
       <c r="I5" s="17">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>118</v>
       </c>
@@ -1549,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F7" s="20" t="s">
         <v>20</v>
       </c>
@@ -1563,12 +1574,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1578,10 +1589,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
@@ -1594,7 +1605,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>52</v>
       </c>
@@ -1607,7 +1618,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
@@ -1620,7 +1631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -1632,8 +1643,13 @@
       <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1646,18 +1662,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1713,11 +1729,11 @@
         <v>8333333.333333333</v>
       </c>
       <c r="H19" s="17" t="str">
-        <f>IF(G19&gt;8000000,"Lulus","Gagal")</f>
-        <v>Lulus</v>
+        <f>IF(G19&gt;8000000,"A","F")</f>
+        <v>A</v>
       </c>
       <c r="I19" s="17">
-        <f>RANK(F19,F19:F23)</f>
+        <f>RANK(F19,$F$19:$F$23)</f>
         <v>4</v>
       </c>
     </row>
@@ -1746,11 +1762,11 @@
         <v>11000000</v>
       </c>
       <c r="H20" s="17" t="str">
-        <f t="shared" ref="H20:H23" si="6">IF(G20&gt;8000000,"Lulus","Gagal")</f>
-        <v>Lulus</v>
+        <f t="shared" ref="H20:H23" si="6">IF(G20&gt;8000000,"A","F")</f>
+        <v>A</v>
       </c>
       <c r="I20" s="17">
-        <f t="shared" ref="I20:I23" si="7">RANK(F20,F20:F24)</f>
+        <f t="shared" ref="I20:I23" si="7">RANK(F20,$F$19:$F$23)</f>
         <v>2</v>
       </c>
     </row>
@@ -1780,11 +1796,11 @@
       </c>
       <c r="H21" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Gagal</v>
+        <v>F</v>
       </c>
       <c r="I21" s="17">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1813,11 +1829,11 @@
       </c>
       <c r="H22" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Lulus</v>
+        <v>A</v>
       </c>
       <c r="I22" s="17">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1846,7 +1862,7 @@
       </c>
       <c r="H23" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>Lulus</v>
+        <v>A</v>
       </c>
       <c r="I23" s="17">
         <f t="shared" si="7"/>
@@ -1870,7 +1886,7 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="17">
-        <f>COUNTA($A$19:$A$23)</f>
+        <f>COUNTA(A19:A23)</f>
         <v>5</v>
       </c>
       <c r="D26" s="6"/>
@@ -1892,7 +1908,7 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="18">
-        <f>MIN($F$19:$F$23)</f>
+        <f>MIN(F19:F23)</f>
         <v>23000000</v>
       </c>
       <c r="D28" s="6"/>
@@ -1925,7 +1941,7 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="17">
-        <f>COUNTIF(H19:H23,"Lulus")</f>
+        <f>COUNTIF(H19:H23,"A")</f>
         <v>4</v>
       </c>
       <c r="D31" s="6"/>
@@ -1941,7 +1957,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,154 +1968,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="37"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36" t="str">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43" t="str">
         <f>TRIM(C1)</f>
         <v>NaMa KEPala SekOLAH</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36" t="str">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="str">
         <f>LOWER(C2)</f>
         <v>nama kepala sekolah</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36" t="str">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="str">
         <f>UPPER(C3)</f>
         <v>NAMA KEPALA SEKOLAH</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36" t="str">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43" t="str">
         <f>PROPER(TRIM(C1))</f>
         <v>Nama Kepala Sekolah</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="37" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="44"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36" t="str">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43" t="str">
         <f>TRIM(C9)</f>
         <v>NaMa KEPala SekOLAH</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36" t="str">
+      <c r="B11" s="42"/>
+      <c r="C11" s="43" t="str">
         <f>LOWER(C10)</f>
         <v>nama kepala sekolah</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="43"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36" t="str">
+      <c r="B12" s="42"/>
+      <c r="C12" s="43" t="str">
         <f>UPPER(C11)</f>
         <v>NAMA KEPALA SEKOLAH</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="43"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36" t="str">
+      <c r="B13" s="42"/>
+      <c r="C13" s="43" t="str">
         <f>PROPER(C12)</f>
         <v>Nama Kepala Sekolah</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2110,14 +2126,16 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D26" sqref="D26:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="5" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2332,11 +2350,11 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2366,8 +2384,8 @@
         <v>1990</v>
       </c>
       <c r="D18" s="17" t="str">
-        <f>LOWER(CONCATENATE(A18,B18,C18))</f>
-        <v>hrruben1990</v>
+        <f>CONCATENATE(A18,"_",B18,"_",C18)</f>
+        <v>HR_Ruben_1990</v>
       </c>
       <c r="E18" s="17">
         <f>LEN(B18)</f>
@@ -2385,8 +2403,8 @@
         <v>1994</v>
       </c>
       <c r="D19" s="17" t="str">
-        <f t="shared" ref="D19:D21" si="5">LOWER(CONCATENATE(A19,B19,C19))</f>
-        <v>financedisti1994</v>
+        <f t="shared" ref="D19:D21" si="5">CONCATENATE(A19,"_",B19,"_",C19)</f>
+        <v>Finance_Disti_1994</v>
       </c>
       <c r="E19" s="17">
         <f t="shared" ref="E19:E21" si="6">LEN(B19)</f>
@@ -2405,7 +2423,7 @@
       </c>
       <c r="D20" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>salesjuned m.1989</v>
+        <v>Sales_Juned M._1989</v>
       </c>
       <c r="E20" s="17">
         <f t="shared" si="6"/>
@@ -2424,7 +2442,7 @@
       </c>
       <c r="D21" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>hraryanne1997</v>
+        <v>HR_Aryanne_1997</v>
       </c>
       <c r="E21" s="17">
         <f t="shared" si="6"/>
@@ -2598,15 +2616,15 @@
       <c r="B2" s="2">
         <v>57.26</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="30">
         <f>ROUNDDOWN(B2,0)</f>
         <v>57</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="30">
         <f>ROUNDUP(B2,1)</f>
         <v>57.300000000000004</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="30">
         <f>ROUND(B2,0)</f>
         <v>57</v>
       </c>
@@ -2620,11 +2638,11 @@
         <f>_xlfn.FLOOR.MATH(H2,100)</f>
         <v>1100</v>
       </c>
-      <c r="J2" s="43">
+      <c r="J2" s="31">
         <f>_xlfn.CEILING.MATH(H2,100)</f>
         <v>1200</v>
       </c>
-      <c r="K2" s="43">
+      <c r="K2" s="31">
         <f>MROUND(H2,100)</f>
         <v>1200</v>
       </c>
@@ -2636,15 +2654,15 @@
       <c r="B3" s="2">
         <v>84.15</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="30">
         <f t="shared" ref="C3:C11" si="0">ROUNDDOWN(B3,0)</f>
         <v>84</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="30">
         <f t="shared" ref="D3:D11" si="1">ROUNDUP(B3,1)</f>
         <v>84.199999999999989</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="30">
         <f t="shared" ref="E3:E11" si="2">ROUND(B3,0)</f>
         <v>84</v>
       </c>
@@ -2658,11 +2676,11 @@
         <f t="shared" ref="I3:I6" si="3">_xlfn.FLOOR.MATH(H3,100)</f>
         <v>500</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J3" s="31">
         <f t="shared" ref="J3:J6" si="4">_xlfn.CEILING.MATH(H3,100)</f>
         <v>600</v>
       </c>
-      <c r="K3" s="43">
+      <c r="K3" s="31">
         <f t="shared" ref="K3:K6" si="5">MROUND(H3,100)</f>
         <v>600</v>
       </c>
@@ -2674,15 +2692,15 @@
       <c r="B4" s="2">
         <v>75.89</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="30">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="30">
         <f t="shared" si="1"/>
         <v>75.899999999999991</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="30">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
@@ -2696,11 +2714,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="31">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="31">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
@@ -2712,15 +2730,15 @@
       <c r="B5" s="2">
         <v>91.29</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="30">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="30">
         <f t="shared" si="1"/>
         <v>91.3</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="30">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
@@ -2734,11 +2752,11 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="31">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="31">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
@@ -2750,15 +2768,15 @@
       <c r="B6" s="2">
         <v>64.489999999999995</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="30">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="30">
         <f t="shared" si="1"/>
         <v>64.5</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="30">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
@@ -2772,11 +2790,11 @@
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="31">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="31">
         <f t="shared" si="5"/>
         <v>1000</v>
       </c>
@@ -2788,15 +2806,15 @@
       <c r="B7" s="2">
         <v>59.55</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="30">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="30">
         <f t="shared" si="1"/>
         <v>59.6</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="30">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
@@ -2818,15 +2836,15 @@
       <c r="B8" s="2">
         <v>67.42</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="30">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="30">
         <f t="shared" si="1"/>
         <v>67.5</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="30">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
@@ -2839,15 +2857,15 @@
       <c r="B9" s="2">
         <v>98.05</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="30">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="30">
         <f t="shared" si="1"/>
         <v>98.1</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="30">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
@@ -2860,15 +2878,15 @@
       <c r="B10" s="2">
         <v>63.45</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="30">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="30">
         <f t="shared" si="1"/>
         <v>63.5</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="30">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
@@ -2881,15 +2899,15 @@
       <c r="B11" s="2">
         <v>79.13</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="30">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="30">
         <f t="shared" si="1"/>
         <v>79.199999999999989</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="30">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
@@ -2907,17 +2925,17 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -2958,15 +2976,15 @@
       <c r="B17" s="2">
         <v>57.26</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="30">
         <f>ROUNDDOWN(B17,0)</f>
         <v>57</v>
       </c>
-      <c r="D17" s="42">
-        <f>ROUNDUP(B17,1)</f>
-        <v>57.300000000000004</v>
-      </c>
-      <c r="E17" s="42">
+      <c r="D17" s="30">
+        <f>ROUNDUP(B17,0)</f>
+        <v>58</v>
+      </c>
+      <c r="E17" s="30">
         <f>ROUND(B17,0)</f>
         <v>57</v>
       </c>
@@ -2980,11 +2998,11 @@
         <f>FLOOR(H17,100)</f>
         <v>1100</v>
       </c>
-      <c r="J17" s="43">
+      <c r="J17" s="31">
         <f>CEILING(H17,100)</f>
         <v>1200</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="31">
         <f>MROUND(H17,100)</f>
         <v>1200</v>
       </c>
@@ -2996,15 +3014,15 @@
       <c r="B18" s="2">
         <v>84.15</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="30">
         <f t="shared" ref="C18:C26" si="6">ROUNDDOWN(B18,0)</f>
         <v>84</v>
       </c>
-      <c r="D18" s="42">
-        <f t="shared" ref="D18:D26" si="7">ROUNDUP(B18,1)</f>
-        <v>84.199999999999989</v>
-      </c>
-      <c r="E18" s="42">
+      <c r="D18" s="30">
+        <f t="shared" ref="D18:D26" si="7">ROUNDUP(B18,0)</f>
+        <v>85</v>
+      </c>
+      <c r="E18" s="30">
         <f t="shared" ref="E18:E26" si="8">ROUND(B18,0)</f>
         <v>84</v>
       </c>
@@ -3018,11 +3036,11 @@
         <f t="shared" ref="I18:I21" si="9">FLOOR(H18,100)</f>
         <v>500</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="31">
         <f t="shared" ref="J18:J21" si="10">CEILING(H18,100)</f>
         <v>600</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="31">
         <f t="shared" ref="K18:K21" si="11">MROUND(H18,100)</f>
         <v>600</v>
       </c>
@@ -3034,15 +3052,15 @@
       <c r="B19" s="2">
         <v>75.89</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="30">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="30">
         <f t="shared" si="7"/>
-        <v>75.899999999999991</v>
-      </c>
-      <c r="E19" s="42">
+        <v>76</v>
+      </c>
+      <c r="E19" s="30">
         <f t="shared" si="8"/>
         <v>76</v>
       </c>
@@ -3056,11 +3074,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J19" s="43">
+      <c r="J19" s="31">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="31">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
@@ -3072,15 +3090,15 @@
       <c r="B20" s="2">
         <v>91.29</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="30">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="30">
         <f t="shared" si="7"/>
-        <v>91.3</v>
-      </c>
-      <c r="E20" s="42">
+        <v>92</v>
+      </c>
+      <c r="E20" s="30">
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
@@ -3094,11 +3112,11 @@
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="J20" s="43">
+      <c r="J20" s="31">
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="K20" s="43">
+      <c r="K20" s="31">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
@@ -3110,15 +3128,15 @@
       <c r="B21" s="2">
         <v>64.489999999999995</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="30">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="30">
         <f t="shared" si="7"/>
-        <v>64.5</v>
-      </c>
-      <c r="E21" s="42">
+        <v>65</v>
+      </c>
+      <c r="E21" s="30">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
@@ -3132,11 +3150,11 @@
         <f t="shared" si="9"/>
         <v>900</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="31">
         <f t="shared" si="10"/>
         <v>1000</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="31">
         <f t="shared" si="11"/>
         <v>1000</v>
       </c>
@@ -3148,15 +3166,15 @@
       <c r="B22" s="2">
         <v>59.55</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="30">
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="30">
         <f t="shared" si="7"/>
-        <v>59.6</v>
-      </c>
-      <c r="E22" s="42">
+        <v>60</v>
+      </c>
+      <c r="E22" s="30">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
@@ -3172,15 +3190,15 @@
       <c r="B23" s="2">
         <v>67.42</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="30">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="30">
         <f t="shared" si="7"/>
-        <v>67.5</v>
-      </c>
-      <c r="E23" s="42">
+        <v>68</v>
+      </c>
+      <c r="E23" s="30">
         <f t="shared" si="8"/>
         <v>67</v>
       </c>
@@ -3193,15 +3211,15 @@
       <c r="B24" s="2">
         <v>98.05</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="30">
         <f t="shared" si="6"/>
         <v>98</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="30">
         <f t="shared" si="7"/>
-        <v>98.1</v>
-      </c>
-      <c r="E24" s="42">
+        <v>99</v>
+      </c>
+      <c r="E24" s="30">
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
@@ -3214,15 +3232,15 @@
       <c r="B25" s="2">
         <v>63.45</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="30">
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="30">
         <f t="shared" si="7"/>
-        <v>63.5</v>
-      </c>
-      <c r="E25" s="42">
+        <v>64</v>
+      </c>
+      <c r="E25" s="30">
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
@@ -3235,15 +3253,15 @@
       <c r="B26" s="2">
         <v>79.13</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="30">
         <f t="shared" si="6"/>
         <v>79</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="30">
         <f t="shared" si="7"/>
-        <v>79.199999999999989</v>
-      </c>
-      <c r="E26" s="42">
+        <v>80</v>
+      </c>
+      <c r="E26" s="30">
         <f t="shared" si="8"/>
         <v>79</v>
       </c>
@@ -3263,8 +3281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B96258-2E6C-4FF5-9F37-8F243DAE390E}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:K15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3298,8 +3316,8 @@
       <c r="E1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="44"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="8" t="s">
         <v>97</v>
       </c>
@@ -3335,7 +3353,7 @@
         <f>IFERROR(HLOOKUP(D2,'Data Referensi'!$A$14:$E$15,2,0),"Tidak Ada")</f>
         <v>2 Hari</v>
       </c>
-      <c r="G2" s="41"/>
+      <c r="G2" s="29"/>
       <c r="I2" s="14">
         <v>44261</v>
       </c>
@@ -3343,15 +3361,15 @@
         <v>106</v>
       </c>
       <c r="K2" s="17" t="str">
-        <f>VLOOKUP(J2,'Data Referensi'!$A$1:$D$11,2,FALSE)</f>
+        <f>IFERROR(VLOOKUP(J2,'Data Referensi'!$A$1:$D$11,2,FALSE),"TAKDA")</f>
         <v>Fiona</v>
       </c>
       <c r="L2" s="17" t="str">
-        <f>VLOOKUP(J2,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <f>IFERROR(VLOOKUP('Bag. 5'!J2,'Data Referensi'!$A$1:$D$11,4,FALSE),"Tak Terjangkau")</f>
         <v>Palembang</v>
       </c>
       <c r="M2" s="17" t="str">
-        <f>HLOOKUP('Bag. 5'!L2,'Data Referensi'!$A$14:$E$15,2,FALSE)</f>
+        <f>IFERROR(HLOOKUP(L2,'Data Referensi'!$A$14:$E$15,2,FALSE),"-")</f>
         <v>2 Hari</v>
       </c>
     </row>
@@ -3374,7 +3392,7 @@
         <f>IFERROR(HLOOKUP(D3,'Data Referensi'!$A$14:$E$15,2,0),"Tidak Ada")</f>
         <v>1 Hari</v>
       </c>
-      <c r="G3" s="41"/>
+      <c r="G3" s="29"/>
       <c r="I3" s="14">
         <v>44257</v>
       </c>
@@ -3382,15 +3400,15 @@
         <v>102</v>
       </c>
       <c r="K3" s="17" t="str">
-        <f>VLOOKUP(J3,'Data Referensi'!$A$1:$D$11,2,FALSE)</f>
+        <f>IFERROR(VLOOKUP(J3,'Data Referensi'!$A$1:$D$11,2,FALSE),"TAKDA")</f>
         <v>Budi</v>
       </c>
       <c r="L3" s="17" t="str">
-        <f>VLOOKUP(J3,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <f>IFERROR(VLOOKUP('Bag. 5'!J3,'Data Referensi'!$A$1:$D$11,4,FALSE),"Tak Terjangkau")</f>
         <v>Jakarta</v>
       </c>
       <c r="M3" s="17" t="str">
-        <f>HLOOKUP('Bag. 5'!L3,'Data Referensi'!$A$14:$E$15,2,FALSE)</f>
+        <f>IFERROR(HLOOKUP(L3,'Data Referensi'!$A$14:$E$15,2,FALSE),"-")</f>
         <v>1 Hari</v>
       </c>
     </row>
@@ -3413,7 +3431,7 @@
         <f>IFERROR(HLOOKUP(D4,'Data Referensi'!$A$14:$E$15,2,0),"Tidak Ada")</f>
         <v>3 Hari</v>
       </c>
-      <c r="G4" s="41"/>
+      <c r="G4" s="29"/>
       <c r="I4" s="14">
         <v>44259</v>
       </c>
@@ -3421,15 +3439,15 @@
         <v>104</v>
       </c>
       <c r="K4" s="17" t="str">
-        <f>VLOOKUP(J4,'Data Referensi'!$A$1:$D$11,2,FALSE)</f>
+        <f>IFERROR(VLOOKUP(J4,'Data Referensi'!$A$1:$D$11,2,FALSE),"TAKDA")</f>
         <v>Dewi</v>
       </c>
       <c r="L4" s="17" t="str">
-        <f>VLOOKUP(J4,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <f>IFERROR(VLOOKUP('Bag. 5'!J4,'Data Referensi'!$A$1:$D$11,4,FALSE),"Tak Terjangkau")</f>
         <v>Surabaya</v>
       </c>
       <c r="M4" s="17" t="str">
-        <f>HLOOKUP('Bag. 5'!L4,'Data Referensi'!$A$14:$E$15,2,FALSE)</f>
+        <f>IFERROR(HLOOKUP(L4,'Data Referensi'!$A$14:$E$15,2,FALSE),"-")</f>
         <v>3 Hari</v>
       </c>
     </row>
@@ -3452,7 +3470,7 @@
         <f>IFERROR(HLOOKUP(D5,'Data Referensi'!$A$14:$E$15,2,0),"Tidak Ada")</f>
         <v>1 Hari</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="29"/>
       <c r="I5" s="14">
         <v>44260</v>
       </c>
@@ -3460,15 +3478,15 @@
         <v>105</v>
       </c>
       <c r="K5" s="17" t="str">
-        <f>VLOOKUP(J5,'Data Referensi'!$A$1:$D$11,2,FALSE)</f>
+        <f>IFERROR(VLOOKUP(J5,'Data Referensi'!$A$1:$D$11,2,FALSE),"TAKDA")</f>
         <v>Eko</v>
       </c>
       <c r="L5" s="17" t="str">
-        <f>VLOOKUP(J5,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <f>IFERROR(VLOOKUP('Bag. 5'!J5,'Data Referensi'!$A$1:$D$11,4,FALSE),"Tak Terjangkau")</f>
         <v>Jakarta</v>
       </c>
       <c r="M5" s="17" t="str">
-        <f>HLOOKUP('Bag. 5'!L5,'Data Referensi'!$A$14:$E$15,2,FALSE)</f>
+        <f>IFERROR(HLOOKUP(L5,'Data Referensi'!$A$14:$E$15,2,FALSE),"-")</f>
         <v>1 Hari</v>
       </c>
     </row>
@@ -3491,7 +3509,7 @@
         <f>IFERROR(HLOOKUP(D6,'Data Referensi'!$A$14:$E$15,2,0),"Tidak Ada")</f>
         <v>2 Hari</v>
       </c>
-      <c r="G6" s="41"/>
+      <c r="G6" s="29"/>
       <c r="I6" s="14">
         <v>44265</v>
       </c>
@@ -3499,15 +3517,15 @@
         <v>110</v>
       </c>
       <c r="K6" s="17" t="str">
-        <f>VLOOKUP(J6,'Data Referensi'!$A$1:$D$11,2,FALSE)</f>
+        <f>IFERROR(VLOOKUP(J6,'Data Referensi'!$A$1:$D$11,2,FALSE),"TAKDA")</f>
         <v>Juned</v>
       </c>
       <c r="L6" s="17" t="str">
-        <f>VLOOKUP(J6,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <f>IFERROR(VLOOKUP('Bag. 5'!J6,'Data Referensi'!$A$1:$D$11,4,FALSE),"Tak Terjangkau")</f>
         <v>Bandung</v>
       </c>
       <c r="M6" s="17" t="str">
-        <f>HLOOKUP('Bag. 5'!L6,'Data Referensi'!$A$14:$E$15,2,FALSE)</f>
+        <f>IFERROR(HLOOKUP(L6,'Data Referensi'!$A$14:$E$15,2,FALSE),"-")</f>
         <v>2 Hari</v>
       </c>
     </row>
@@ -3530,7 +3548,7 @@
         <f>IFERROR(HLOOKUP(D7,'Data Referensi'!$A$14:$E$15,2,0),"Tidak Ada")</f>
         <v>2 Hari</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="29"/>
       <c r="I7" s="14">
         <v>44258</v>
       </c>
@@ -3538,15 +3556,15 @@
         <v>103</v>
       </c>
       <c r="K7" s="17" t="str">
-        <f>VLOOKUP(J7,'Data Referensi'!$A$1:$D$11,2,FALSE)</f>
+        <f>IFERROR(VLOOKUP(J7,'Data Referensi'!$A$1:$D$11,2,FALSE),"TAKDA")</f>
         <v>Clara</v>
       </c>
       <c r="L7" s="17" t="str">
-        <f>VLOOKUP(J7,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <f>IFERROR(VLOOKUP('Bag. 5'!J7,'Data Referensi'!$A$1:$D$11,4,FALSE),"Tak Terjangkau")</f>
         <v>Palembang</v>
       </c>
       <c r="M7" s="17" t="str">
-        <f>HLOOKUP('Bag. 5'!L7,'Data Referensi'!$A$14:$E$15,2,FALSE)</f>
+        <f>IFERROR(HLOOKUP(L7,'Data Referensi'!$A$14:$E$15,2,FALSE),"-")</f>
         <v>2 Hari</v>
       </c>
     </row>
@@ -3569,7 +3587,7 @@
         <f>IFERROR(HLOOKUP(D8,'Data Referensi'!$A$14:$E$15,2,0),"Tidak Ada")</f>
         <v>2 Hari</v>
       </c>
-      <c r="G8" s="41"/>
+      <c r="G8" s="29"/>
       <c r="I8" s="14">
         <v>44263</v>
       </c>
@@ -3577,15 +3595,15 @@
         <v>108</v>
       </c>
       <c r="K8" s="17" t="str">
-        <f>VLOOKUP(J8,'Data Referensi'!$A$1:$D$11,2,FALSE)</f>
+        <f>IFERROR(VLOOKUP(J8,'Data Referensi'!$A$1:$D$11,2,FALSE),"TAKDA")</f>
         <v>Hesti</v>
       </c>
       <c r="L8" s="17" t="str">
-        <f>VLOOKUP(J8,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <f>IFERROR(VLOOKUP('Bag. 5'!J8,'Data Referensi'!$A$1:$D$11,4,FALSE),"Tak Terjangkau")</f>
         <v>Bandung</v>
       </c>
       <c r="M8" s="17" t="str">
-        <f>HLOOKUP('Bag. 5'!L8,'Data Referensi'!$A$14:$E$15,2,FALSE)</f>
+        <f>IFERROR(HLOOKUP(L8,'Data Referensi'!$A$14:$E$15,2,FALSE),"-")</f>
         <v>2 Hari</v>
       </c>
     </row>
@@ -3608,7 +3626,7 @@
         <f>IFERROR(HLOOKUP(D9,'Data Referensi'!$A$14:$E$15,2,0),"Tidak Ada")</f>
         <v>1 Hari</v>
       </c>
-      <c r="G9" s="41"/>
+      <c r="G9" s="29"/>
       <c r="I9" s="14">
         <v>44264</v>
       </c>
@@ -3616,15 +3634,15 @@
         <v>109</v>
       </c>
       <c r="K9" s="17" t="str">
-        <f>VLOOKUP(J9,'Data Referensi'!$A$1:$D$11,2,FALSE)</f>
+        <f>IFERROR(VLOOKUP(J9,'Data Referensi'!$A$1:$D$11,2,FALSE),"TAKDA")</f>
         <v>Igna</v>
       </c>
       <c r="L9" s="17" t="str">
-        <f>VLOOKUP(J9,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <f>IFERROR(VLOOKUP('Bag. 5'!J9,'Data Referensi'!$A$1:$D$11,4,FALSE),"Tak Terjangkau")</f>
         <v>Jakarta</v>
       </c>
       <c r="M9" s="17" t="str">
-        <f>HLOOKUP('Bag. 5'!L9,'Data Referensi'!$A$14:$E$15,2,FALSE)</f>
+        <f>IFERROR(HLOOKUP(L9,'Data Referensi'!$A$14:$E$15,2,FALSE),"-")</f>
         <v>1 Hari</v>
       </c>
     </row>
@@ -3647,7 +3665,7 @@
         <f>IFERROR(HLOOKUP(D10,'Data Referensi'!$A$14:$E$15,2,0),"Tidak Ada")</f>
         <v>2 Hari</v>
       </c>
-      <c r="G10" s="41"/>
+      <c r="G10" s="29"/>
       <c r="I10" s="14">
         <v>44256</v>
       </c>
@@ -3655,15 +3673,15 @@
         <v>101</v>
       </c>
       <c r="K10" s="17" t="str">
-        <f>VLOOKUP(J10,'Data Referensi'!$A$1:$D$11,2,FALSE)</f>
+        <f>IFERROR(VLOOKUP(J10,'Data Referensi'!$A$1:$D$11,2,FALSE),"TAKDA")</f>
         <v>Andi</v>
       </c>
       <c r="L10" s="17" t="str">
-        <f>VLOOKUP(J10,'Data Referensi'!$A$1:$D$11,4,FALSE)</f>
+        <f>IFERROR(VLOOKUP('Bag. 5'!J10,'Data Referensi'!$A$1:$D$11,4,FALSE),"Tak Terjangkau")</f>
         <v>Bandung</v>
       </c>
       <c r="M10" s="17" t="str">
-        <f>HLOOKUP('Bag. 5'!L10,'Data Referensi'!$A$14:$E$15,2,FALSE)</f>
+        <f>IFERROR(HLOOKUP(L10,'Data Referensi'!$A$14:$E$15,2,FALSE),"-")</f>
         <v>2 Hari</v>
       </c>
     </row>
@@ -3689,7 +3707,7 @@
       <c r="F11" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="41"/>
+      <c r="G11" s="29"/>
       <c r="I11" s="14">
         <v>44262</v>
       </c>
@@ -3697,15 +3715,15 @@
         <v>112</v>
       </c>
       <c r="K11" s="17" t="str">
-        <f>IFERROR(VLOOKUP(J11,'Data Referensi'!$A$1:$D$11,2,FALSE),"Nodata")</f>
-        <v>Nodata</v>
+        <f>IFERROR(VLOOKUP(J11,'Data Referensi'!$A$1:$D$11,2,FALSE),"TAKDA")</f>
+        <v>TAKDA</v>
       </c>
       <c r="L11" s="17" t="str">
-        <f>IFERROR(VLOOKUP(J11,'Data Referensi'!$A$1:$D$11,4,FALSE),"Nodata")</f>
-        <v>Nodata</v>
+        <f>IFERROR(VLOOKUP('Bag. 5'!J11,'Data Referensi'!$A$1:$D$11,4,FALSE),"Tak Terjangkau")</f>
+        <v>Tak Terjangkau</v>
       </c>
       <c r="M11" s="17" t="str">
-        <f>IFERROR(HLOOKUP('Bag. 5'!L11,'Data Referensi'!$A$14:$E$15,2,FALSE),"-")</f>
+        <f>IFERROR(HLOOKUP(L11,'Data Referensi'!$A$14:$E$15,2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
@@ -3719,43 +3737,58 @@
       <c r="E12" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="20"/>
+      <c r="G12" s="29"/>
+      <c r="I12" s="14">
+        <v>44256</v>
+      </c>
+      <c r="J12" s="13">
+        <v>101</v>
+      </c>
+      <c r="K12" s="17" t="str">
+        <f>IFERROR(VLOOKUP(J12,'Data Referensi'!$A$1:$D$11,2,FALSE),"TAKDA")</f>
+        <v>Andi</v>
+      </c>
+      <c r="L12" s="17" t="str">
+        <f>IFERROR(VLOOKUP('Bag. 5'!J12,'Data Referensi'!$A$1:$D$11,4,FALSE),"Tak Terjangkau")</f>
+        <v>Bandung</v>
+      </c>
+      <c r="M12" s="17" t="str">
+        <f>IFERROR(HLOOKUP(L12,'Data Referensi'!$A$14:$E$15,2,FALSE),"-")</f>
+        <v>2 Hari</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
+      <c r="G13" s="29"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="G14" s="41"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="G14" s="29"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="G15" s="41"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="G15" s="29"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">
